--- a/table_headers.xlsx
+++ b/table_headers.xlsx
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="V113" sqref="V113"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
